--- a/CTEMMM_v1.0.0.xlsx
+++ b/CTEMMM_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ristoj/Library/CloudStorage/OneDrive-ZenzizenSec/LDR516/July turn in/Maturity Models/CTEMMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B0DC48-80F5-704E-9D68-1AFCC3C88C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA4911A-FD66-2B43-95A2-25853E6338B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="1800" windowWidth="31500" windowHeight="17440" xr2:uid="{E613C0B1-E856-D640-A56B-03DF0D2D3E73}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Definitions" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CTEMMM!$C$3:$C$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CTEMMM!$A$3:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CTEMMM!$C$5:$C$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CTEMMM!$A$1:$H$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Definitions!$A$2:$C$45</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="295">
   <si>
     <t>Scoping</t>
   </si>
@@ -918,13 +918,22 @@
   </si>
   <si>
     <t>Licensed under the CTEMMM License (see LICENSE.md)</t>
+  </si>
+  <si>
+    <t>CTEM Maturity Model (CTEMMM)</t>
+  </si>
+  <si>
+    <t>Version:  v1.0.0</t>
+  </si>
+  <si>
+    <t>Release Date:  2025-12-17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -974,6 +983,13 @@
       <sz val="14"/>
       <color rgb="FF0E0E0E"/>
       <name val=".AppleSystemUIFont"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1051,10 +1067,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1069,11 +1087,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,10 +1436,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1438,1000 +1452,1005 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30">
-      <c r="D1" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="D2" s="11" t="s">
+      <c r="D1" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1">
+      <c r="D4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="19">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="19">
+      <c r="A5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="190">
-      <c r="A4" s="12" t="s">
+    <row r="6" spans="1:8" ht="190">
+      <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="152">
-      <c r="A5" s="12"/>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="152">
-      <c r="A6" s="12"/>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="152">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="152">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="152">
+      <c r="A9" s="14"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="152">
-      <c r="A8" s="12"/>
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="1:8" ht="152">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="152">
-      <c r="A9" s="12"/>
-      <c r="B9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="190">
-      <c r="A10" s="12"/>
-      <c r="B10" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="152">
+      <c r="A11" s="14"/>
+      <c r="B11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="190">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="152">
-      <c r="A11" s="12"/>
-      <c r="B11" s="6" t="s">
+    <row r="13" spans="1:8" ht="152">
+      <c r="A13" s="14"/>
+      <c r="B13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="152">
-      <c r="A12" s="12"/>
-      <c r="B12" s="3" t="s">
+    <row r="14" spans="1:8" ht="152">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="171">
-      <c r="A13" s="13" t="s">
+    <row r="15" spans="1:8" ht="171">
+      <c r="A15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="152">
-      <c r="A14" s="13"/>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="171">
-      <c r="A15" s="13"/>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="152">
+      <c r="A16" s="15"/>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="171">
+      <c r="A17" s="15"/>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="152">
-      <c r="A16" s="13"/>
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="1:8" ht="152">
+      <c r="A18" s="15"/>
+      <c r="B18" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="171">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="171">
-      <c r="A18" s="13"/>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="171">
+      <c r="A19" s="15"/>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="171">
+      <c r="A20" s="15"/>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="152">
-      <c r="A19" s="13"/>
-      <c r="B19" s="4" t="s">
+    <row r="21" spans="1:8" ht="152">
+      <c r="A21" s="15"/>
+      <c r="B21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="171">
-      <c r="A20" s="14" t="s">
+    <row r="22" spans="1:8" ht="171">
+      <c r="A22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="152">
-      <c r="A21" s="14"/>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="171">
-      <c r="A22" s="14"/>
-      <c r="B22" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="152">
+      <c r="A23" s="16"/>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="171">
+      <c r="A24" s="16"/>
+      <c r="B24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="152">
-      <c r="A23" s="14"/>
-      <c r="B23" s="1" t="s">
+    <row r="25" spans="1:8" ht="152">
+      <c r="A25" s="16"/>
+      <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="171">
-      <c r="A24" s="14"/>
-      <c r="B24" s="7" t="s">
+    <row r="26" spans="1:8" ht="171">
+      <c r="A26" s="16"/>
+      <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="190">
-      <c r="A25" s="14"/>
-      <c r="B25" s="6" t="s">
+    <row r="27" spans="1:8" ht="190">
+      <c r="A27" s="16"/>
+      <c r="B27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="152">
-      <c r="A26" s="14"/>
-      <c r="B26" s="7" t="s">
+    <row r="28" spans="1:8" ht="152">
+      <c r="A28" s="16"/>
+      <c r="B28" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="171">
-      <c r="A27" s="15" t="s">
+    <row r="29" spans="1:8" ht="171">
+      <c r="A29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="152">
-      <c r="A28" s="15"/>
-      <c r="B28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="152">
-      <c r="A29" s="15"/>
-      <c r="B29" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="152">
+      <c r="A30" s="17"/>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="152">
+      <c r="A31" s="17"/>
+      <c r="B31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="152">
-      <c r="A30" s="15"/>
-      <c r="B30" s="1" t="s">
+    <row r="32" spans="1:8" ht="152">
+      <c r="A32" s="17"/>
+      <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="152">
-      <c r="A31" s="15"/>
-      <c r="B31" s="5" t="s">
+    <row r="33" spans="1:8" ht="152">
+      <c r="A33" s="17"/>
+      <c r="B33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="171">
-      <c r="A32" s="15"/>
-      <c r="B32" s="6" t="s">
+    <row r="34" spans="1:8" ht="171">
+      <c r="A34" s="17"/>
+      <c r="B34" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="171">
-      <c r="A33" s="15"/>
-      <c r="B33" s="5" t="s">
+    <row r="35" spans="1:8" ht="171">
+      <c r="A35" s="17"/>
+      <c r="B35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="190">
-      <c r="A34" s="15"/>
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="1:8" ht="190">
+      <c r="A36" s="17"/>
+      <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="152">
-      <c r="A35" s="10" t="s">
+    <row r="37" spans="1:8" ht="152">
+      <c r="A37" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="152">
-      <c r="A36" s="10"/>
-      <c r="B36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="152">
-      <c r="A37" s="10"/>
-      <c r="B37" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="152">
-      <c r="A38" s="10"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="152">
+      <c r="A39" s="13"/>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="152">
+      <c r="A40" s="13"/>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="152">
-      <c r="A39" s="10"/>
-      <c r="B39" s="2" t="s">
+    <row r="41" spans="1:8" ht="152">
+      <c r="A41" s="13"/>
+      <c r="B41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="133">
-      <c r="A40" s="10"/>
-      <c r="B40" s="1" t="s">
+    <row r="42" spans="1:8" ht="133">
+      <c r="A42" s="13"/>
+      <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="209">
-      <c r="A41" s="10"/>
-      <c r="B41" s="2" t="s">
+    <row r="43" spans="1:8" ht="209">
+      <c r="A43" s="13"/>
+      <c r="B43" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="17" t="s">
+    <row r="46" spans="1:8">
+      <c r="B46" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="B45" s="18" t="s">
+    <row r="47" spans="1:8">
+      <c r="B47" s="11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="18" t="s">
+    <row r="48" spans="1:8">
+      <c r="B48" s="11" t="s">
         <v>291</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C3:C41" xr:uid="{34AC2215-D0A1-F844-B05C-DCE669BCB620}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B35:H41">
-    <sortCondition ref="C35:C41"/>
+  <autoFilter ref="C5:C43" xr:uid="{34AC2215-D0A1-F844-B05C-DCE669BCB620}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B37:H43">
+    <sortCondition ref="C37:C43"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A29:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="39" fitToHeight="5" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="41" fitToHeight="5" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
